--- a/parabolic/2025/08/12/parabolic.xlsx
+++ b/parabolic/2025/08/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>546</v>
       </c>
       <c r="D2" t="n">
-        <v>335700</v>
+        <v>480800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>117800</v>
+        <v>141500</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>119</v>
+        <v>607</v>
       </c>
       <c r="D4" t="n">
-        <v>1967600</v>
+        <v>284900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>6255</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>654</v>
+        <v>199</v>
       </c>
       <c r="D5" t="n">
-        <v>175600</v>
+        <v>127000</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>636</v>
+        <v>331</v>
       </c>
       <c r="D6" t="n">
-        <v>102500</v>
+        <v>106700</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>381</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>1011000</v>
+        <v>3517500</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="D8" t="n">
-        <v>956400</v>
+        <v>219200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,16 +643,131 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="D9" t="n">
-        <v>349400</v>
+        <v>163000</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>950</v>
+      </c>
+      <c r="D10" t="n">
+        <v>111600</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>374</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1242900</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>663</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1487400</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>619</v>
+      </c>
+      <c r="D13" t="n">
+        <v>472500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9327</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>420</v>
+      </c>
+      <c r="D14" t="n">
+        <v>165700</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/12/parabolic.xlsx
+++ b/parabolic/2025/08/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D2" t="n">
-        <v>480800</v>
+        <v>604000</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>2286</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>111</v>
+        <v>602</v>
       </c>
       <c r="D3" t="n">
-        <v>141500</v>
+        <v>105300</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>3121</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>607</v>
+        <v>296</v>
       </c>
       <c r="D4" t="n">
-        <v>284900</v>
+        <v>278700</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>127000</v>
+        <v>145600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>331</v>
+        <v>381</v>
       </c>
       <c r="D6" t="n">
-        <v>106700</v>
+        <v>154200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>4054</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>795</v>
       </c>
       <c r="D7" t="n">
-        <v>3517500</v>
+        <v>136800</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6255</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>652</v>
+        <v>622</v>
       </c>
       <c r="D8" t="n">
-        <v>219200</v>
+        <v>458700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>637</v>
+        <v>197</v>
       </c>
       <c r="D9" t="n">
-        <v>163000</v>
+        <v>144400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>950</v>
+        <v>331</v>
       </c>
       <c r="D10" t="n">
-        <v>111600</v>
+        <v>119200</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>374</v>
+        <v>120</v>
       </c>
       <c r="D11" t="n">
-        <v>1242900</v>
+        <v>4193900</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>663</v>
+        <v>417</v>
       </c>
       <c r="D12" t="n">
-        <v>1487400</v>
+        <v>122200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="D13" t="n">
-        <v>472500</v>
+        <v>277100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>9327</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,16 +758,154 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>420</v>
+        <v>632</v>
       </c>
       <c r="D14" t="n">
-        <v>165700</v>
+        <v>211600</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>6339</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>941</v>
+      </c>
+      <c r="D15" t="n">
+        <v>155900</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>6907</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>945</v>
+      </c>
+      <c r="D16" t="n">
+        <v>153900</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>382</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1441700</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>668</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1956600</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>622</v>
+      </c>
+      <c r="D19" t="n">
+        <v>574800</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>9327</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>420</v>
+      </c>
+      <c r="D20" t="n">
+        <v>220900</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/12/parabolic.xlsx
+++ b/parabolic/2025/08/12/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D2" t="n">
-        <v>604000</v>
+        <v>723600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -508,7 +508,7 @@
         <v>602</v>
       </c>
       <c r="D3" t="n">
-        <v>105300</v>
+        <v>123000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D4" t="n">
-        <v>278700</v>
+        <v>340100</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="n">
-        <v>145600</v>
+        <v>190600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" t="n">
-        <v>154200</v>
+        <v>186600</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="D7" t="n">
-        <v>136800</v>
+        <v>218200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4588</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>622</v>
+        <v>341</v>
       </c>
       <c r="D8" t="n">
-        <v>458700</v>
+        <v>184500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5010</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="D9" t="n">
-        <v>144400</v>
+        <v>3654300</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>5658</t>
+          <t>4588</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>331</v>
+        <v>628</v>
       </c>
       <c r="D10" t="n">
-        <v>119200</v>
+        <v>633400</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>4765</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>120</v>
+        <v>641</v>
       </c>
       <c r="D11" t="n">
-        <v>4193900</v>
+        <v>137500</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>6165</t>
+          <t>5010</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="D12" t="n">
-        <v>122200</v>
+        <v>160200</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -726,7 +726,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>6255</t>
+          <t>5658</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>655</v>
+        <v>333</v>
       </c>
       <c r="D13" t="n">
-        <v>277100</v>
+        <v>140100</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -749,7 +749,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>6262</t>
+          <t>5721</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>632</v>
+        <v>123</v>
       </c>
       <c r="D14" t="n">
-        <v>211600</v>
+        <v>5791800</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -772,7 +772,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>6339</t>
+          <t>6165</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -781,10 +781,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>941</v>
+        <v>415</v>
       </c>
       <c r="D15" t="n">
-        <v>155900</v>
+        <v>144200</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -795,7 +795,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>945</v>
+        <v>660</v>
       </c>
       <c r="D16" t="n">
-        <v>153900</v>
+        <v>366300</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -818,7 +818,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>8226</t>
+          <t>6262</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>382</v>
+        <v>634</v>
       </c>
       <c r="D17" t="n">
-        <v>1441700</v>
+        <v>254400</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>8524</t>
+          <t>6339</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>668</v>
+        <v>942</v>
       </c>
       <c r="D18" t="n">
-        <v>1956600</v>
+        <v>203600</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,7 +864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>8600</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>622</v>
+        <v>950</v>
       </c>
       <c r="D19" t="n">
-        <v>574800</v>
+        <v>176300</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>9327</t>
+          <t>7071</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -896,16 +896,108 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>420</v>
+        <v>625</v>
       </c>
       <c r="D20" t="n">
-        <v>220900</v>
+        <v>162900</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>378</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1551300</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>663</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2847700</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>8600</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>620</v>
+      </c>
+      <c r="D23" t="n">
+        <v>827200</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>9327</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-08-12</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>415</v>
+      </c>
+      <c r="D24" t="n">
+        <v>235100</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
